--- a/pred_ohlcv/54_21/2020-01-23 MBL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 MBL ohlcv.xlsx
@@ -7334,7 +7334,7 @@
         <v>347013.3037</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>388193.3037</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>388193.3037</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>363394.3037</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>327376.3037</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>271954.3037</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>317605.3037</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>288544.3037</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>288544.3037</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>250155.3037</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>281616.3037</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>244446.3037</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>213239.3037</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>193193.3037</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>193193.3037</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>222142.3037</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>262390.3037</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>222616.3037</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>199770.3037</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>199770.3037</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>164547.3037</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>193702.3037</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>193702.3037</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>161010.3037</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>189330.3037</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>140008.3037</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>166297.3037</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>128623.3037</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>167714.3037</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>127654.3037</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>174359.3037</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>141238.3037</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>141238.3037</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>163204.3037</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>204144.3037</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>148301.3037</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>148301.3037</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>182717.3037</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>202251.3037</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>177227.3037</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>205868.3037</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>239982.3037</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>239982.3037</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>200968.3037</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>159735.3037</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>177066.3037</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>138018.3037</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>138018.3037</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>138018.3037</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>138018.3037</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>138018.3037</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>161880.3037</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>204165.3037</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>229601.3037</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>181149.3037</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>218956.3037</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>248539.3037</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>248539.3037</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>212825.3037</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>186310.3037</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>186310.3037</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>186310.3037</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>155495.3037</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>135404.3037</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>161218.3037</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>139774.3037</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>168829.3037</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>145655.3037</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>145655.3037</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>176179.3037</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>211479.3037</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>260771.3037</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>306707.3037</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>279477.3037</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>258401.3037</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>283020.3037</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>329064.3037</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>364331.3037</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>397307.3037</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>357213.3037</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>324713.3037</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>355656.3037</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>318706.3037</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>283394.3037</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>303183.3037</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>348302.3037</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>404181.7383</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>384487.7383</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>356647.7383</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>306385.7383</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>263787.7383</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>300643.7383</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>278176.7383</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>278176.7383</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>278176.7383</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>278176.7383</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>326121.7383</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>358916.7383</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>334084.7383</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>282851.7383</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>311972.7383</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>348791.7383</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>390053.7383</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-3264931.9566</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-3218740.9566</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-3312974.9566</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-3354466.9566</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-3312439.9566</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-3239390.9566</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-3239390.9566</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-3272818.9566</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-3312014.9566</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-3312014.9566</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-3344662.9566</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-3374293.9566</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-3374293.9566</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-2926521.9293</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-2645122.987300001</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-3733920.470400001</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-4049748.626100001</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-4049748.626100001</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-4090392.626100001</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-4090392.626100001</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-4348249.204800001</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-3945847.619700002</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-3945847.619700002</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-3994389.619700002</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-4032031.619700002</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-4064076.619700002</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-4021049.619700002</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-4834270.947000002</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-10050471.9878</v>
       </c>
       <c r="H1087">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-10050471.9878</v>
       </c>
       <c r="H1088">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1089">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1090">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1091">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1092">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1093">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1094">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1095">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1096">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1097">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1098">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1099">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-10051140.1439</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-10018892.1439</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-9985505.143900003</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-10210547.354</v>
       </c>
       <c r="H1180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-10232812.354</v>
       </c>
       <c r="H1181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-10271389.354</v>
       </c>
       <c r="H1182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-10291911.354</v>
       </c>
       <c r="H1183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-10241991.354</v>
       </c>
       <c r="H1184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-10291285.354</v>
       </c>
       <c r="H1185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-10338072.354</v>
       </c>
       <c r="H1186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-10377688.354</v>
       </c>
       <c r="H1187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-10377688.354</v>
       </c>
       <c r="H1188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-10342227.354</v>
       </c>
       <c r="H1189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-10315084.354</v>
       </c>
       <c r="H1190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-10315084.354</v>
       </c>
       <c r="H1191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-10315084.354</v>
       </c>
       <c r="H1192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-10282302.354</v>
       </c>
       <c r="H1193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-10282302.354</v>
       </c>
       <c r="H1194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-10239543.354</v>
       </c>
       <c r="H1195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-10239543.354</v>
       </c>
       <c r="H1196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-10239543.354</v>
       </c>
       <c r="H1197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-10275923.354</v>
       </c>
       <c r="H1198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-10326785.354</v>
       </c>
       <c r="H1199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-10326785.354</v>
       </c>
       <c r="H1200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-10286432.354</v>
       </c>
       <c r="H1201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-10335214.354</v>
       </c>
       <c r="H1202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-10335214.354</v>
       </c>
       <c r="H1203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-10335214.354</v>
       </c>
       <c r="H1204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 MBL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 MBL ohlcv.xlsx
@@ -7334,7 +7334,7 @@
         <v>347013.3037</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>388193.3037</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>388193.3037</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>363394.3037</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>327376.3037</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>271954.3037</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>317605.3037</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>288544.3037</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>288544.3037</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>250155.3037</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>281616.3037</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>244446.3037</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>213239.3037</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>193193.3037</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>193193.3037</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>262390.3037</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>222616.3037</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>199770.3037</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>199770.3037</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>164547.3037</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>193702.3037</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>193702.3037</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>161010.3037</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>189330.3037</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>140008.3037</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>166297.3037</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>128623.3037</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>167714.3037</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>127654.3037</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>174359.3037</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>141238.3037</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>141238.3037</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>163204.3037</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>204144.3037</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>148301.3037</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>148301.3037</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>182717.3037</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>202251.3037</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>177227.3037</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>205868.3037</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>239982.3037</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>239982.3037</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>200968.3037</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>159735.3037</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>177066.3037</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>138018.3037</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>138018.3037</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>138018.3037</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>138018.3037</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>138018.3037</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>161880.3037</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>204165.3037</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>229601.3037</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>181149.3037</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>218956.3037</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>248539.3037</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>248539.3037</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>212825.3037</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>186310.3037</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>186310.3037</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>186310.3037</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>155495.3037</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>135404.3037</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>161218.3037</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>139774.3037</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>168829.3037</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>145655.3037</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>145655.3037</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>176179.3037</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>211479.3037</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>260771.3037</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>306707.3037</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>279477.3037</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>258401.3037</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>283020.3037</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>329064.3037</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>364331.3037</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>397307.3037</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>357213.3037</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>324713.3037</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>355656.3037</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>318706.3037</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>283394.3037</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>303183.3037</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>348302.3037</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>404181.7383</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>384487.7383</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>356647.7383</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>306385.7383</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>263787.7383</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>300643.7383</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>278176.7383</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>278176.7383</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>278176.7383</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>278176.7383</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>326121.7383</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>358916.7383</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>334084.7383</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>282851.7383</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>311972.7383</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>348791.7383</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>390053.7383</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-3264931.9566</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-3312974.9566</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-3354466.9566</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-3312439.9566</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-3239390.9566</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-3239390.9566</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-3272818.9566</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-3312014.9566</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-3312014.9566</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-3344662.9566</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-3374293.9566</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-3374293.9566</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-2926521.9293</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-2645122.987300001</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-3733920.470400001</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-4049748.626100001</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-4049748.626100001</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-4090392.626100001</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-4090392.626100001</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-4348249.204800001</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-3945847.619700002</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-3945847.619700002</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-3994389.619700002</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-4032031.619700002</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-4064076.619700002</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-4021049.619700002</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-4834270.947000002</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-9470454.747700004</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-9445013.747700004</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-9445013.747700004</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-9445013.747700004</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-9418706.747700004</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-9440122.747700004</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-9440122.747700004</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-9421431.747700004</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-9467194.747700004</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-9431748.747700004</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-9465121.747700004</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-9465121.747700004</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-9415388.747700004</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-9365923.747700004</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-9342474.747700004</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-9379241.747700004</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-9403549.747700004</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-9403549.747700004</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-9403549.747700004</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-9366435.747700004</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-9378078.747700004</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-9345396.747700004</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-9270011.747700004</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-9366208.200500004</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-9408190.200500004</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-10247094.867</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-10050471.9878</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-10050471.9878</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-10050471.9878</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-10050471.9878</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-9952582.143900003</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-9992025.143900003</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-9948989.143900003</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-9979707.143900003</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-10184978.354</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-10138559.354</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-10167743.354</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-10210547.354</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-10210547.354</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-10210547.354</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-10232812.354</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-10271389.354</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-10291911.354</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-10241991.354</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-10291285.354</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-10338072.354</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-10377688.354</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-10377688.354</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-10342227.354</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-10315084.354</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-10315084.354</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-10315084.354</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-10282302.354</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-10282302.354</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-10239543.354</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-10239543.354</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-10239543.354</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-10275923.354</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-10326785.354</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-10326785.354</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-10286432.354</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-10335214.354</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-10335214.354</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-10335214.354</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-10335214.354</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-10335214.354</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-10301466.354</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-10331683.354</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-10294406.354</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-10271833.354</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-10302815.354</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-10302815.354</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-10274962.354</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-10274962.354</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-10250410.354</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-10250410.354</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-10211968.354</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-10164195.354</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-10208300.354</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-10208300.354</v>
       </c>
       <c r="H1220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-10228658.354</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-10228658.354</v>
       </c>
       <c r="H1222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-10228658.354</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-10198778.354</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-10161485.354</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-10161485.354</v>
       </c>
       <c r="H1226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-10200973.354</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-10200973.354</v>
       </c>
       <c r="H1228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-10236406.354</v>
       </c>
       <c r="H1229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-10209715.354</v>
       </c>
       <c r="H1230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-10186983.354</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-10208663.354</v>
       </c>
       <c r="H1232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-10261273.354</v>
       </c>
       <c r="H1233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-10226673.354</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-10196413.354</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-10159591.354</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-10198608.354</v>
       </c>
       <c r="H1237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-10237149.354</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-10199519.354</v>
       </c>
       <c r="H1239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-10173524.354</v>
       </c>
       <c r="H1240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-10226735.354</v>
       </c>
       <c r="H1241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-10193678.354</v>
       </c>
       <c r="H1242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-10236788.354</v>
       </c>
       <c r="H1243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-10236788.354</v>
       </c>
       <c r="H1244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-10208453.354</v>
       </c>
       <c r="H1245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-10208453.354</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-10177046.354</v>
       </c>
       <c r="H1247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-9804572.578300005</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-9759612.578300005</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
